--- a/data/comments_to_code/Aria.xlsx
+++ b/data/comments_to_code/Aria.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +437,11 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>label_aria</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>outcome</t>
         </is>
       </c>
@@ -506,6 +511,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,6 +587,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -638,6 +663,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +739,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -770,6 +815,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -836,6 +891,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -902,6 +967,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -968,6 +1043,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1034,6 +1119,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1100,6 +1195,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1166,6 +1271,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1232,6 +1347,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1298,6 +1423,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1364,6 +1499,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1430,6 +1575,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1496,6 +1651,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1562,6 +1727,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1628,6 +1803,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1694,6 +1879,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1760,6 +1955,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1826,6 +2031,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1892,6 +2107,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1958,6 +2183,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2024,6 +2259,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2090,6 +2335,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2156,6 +2411,16 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2222,6 +2487,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2288,6 +2563,16 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2354,6 +2639,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2420,6 +2715,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2486,6 +2791,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2552,6 +2867,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2618,6 +2943,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2684,6 +3019,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2750,6 +3095,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2816,6 +3171,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2882,6 +3247,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2948,6 +3323,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3014,6 +3399,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3080,6 +3475,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3146,6 +3551,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3212,6 +3627,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3278,6 +3703,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3344,6 +3779,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3410,6 +3855,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3476,6 +3931,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3542,6 +4007,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3608,6 +4083,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3674,6 +4159,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3740,6 +4235,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3806,6 +4311,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3872,6 +4387,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3938,6 +4463,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4004,6 +4539,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4070,6 +4615,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4136,6 +4691,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4202,6 +4767,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4268,6 +4843,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4334,6 +4919,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4400,6 +4995,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4466,6 +5071,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4532,6 +5147,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4598,6 +5223,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4664,6 +5299,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4730,6 +5375,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4796,6 +5451,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4862,6 +5527,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4928,6 +5603,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4994,6 +5679,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5060,6 +5755,16 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5126,6 +5831,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5192,6 +5907,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5258,6 +5983,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5324,6 +6059,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5390,6 +6135,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5456,6 +6211,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5522,6 +6287,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5588,6 +6363,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5654,6 +6439,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5720,6 +6515,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5786,6 +6591,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5852,6 +6667,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5918,6 +6743,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5984,6 +6819,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6050,6 +6895,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6116,6 +6971,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6182,6 +7047,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6248,6 +7123,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6314,6 +7199,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6380,6 +7275,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6446,6 +7351,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6512,6 +7427,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6578,6 +7503,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6644,6 +7579,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6710,6 +7655,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6776,6 +7731,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6842,6 +7807,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>disapprove</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6908,6 +7883,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6974,6 +7959,16 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7038,6 +8033,16 @@
       <c r="N101" t="inlineStr">
         <is>
           <t>negative</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>approve</t>
         </is>
       </c>
     </row>
